--- a/Price.xlsx
+++ b/Price.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0733da1c50e9585/Documents/Projects/ADClock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ADClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="8_{1A5DF1F9-E9F6-4729-969A-024F4E154B7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A1EC25E3-9595-4420-8307-2FAA9EB907A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609BEA2B-1A24-44AF-9227-6799E6015B01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27270" yWindow="615" windowWidth="21870" windowHeight="15435" xr2:uid="{C4AA6912-3771-4284-85F9-CCF999C76897}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4AA6912-3771-4284-85F9-CCF999C76897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Stepper</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Metalpin</t>
   </si>
   <si>
-    <t>https://www.conrad.de/de/p/toolcraft-136205-zylinderkerbstift-x-l-2-mm-x-30-mm-stahl-250-st-136205.html</t>
-  </si>
-  <si>
     <t>Price for first</t>
   </si>
   <si>
@@ -192,10 +189,28 @@
     <t>M3 4mm</t>
   </si>
   <si>
-    <t>Amazon:</t>
-  </si>
-  <si>
-    <t>Reichelt:</t>
+    <t>M3 (longer)</t>
+  </si>
+  <si>
+    <t>10K Resistor</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/widerstand-kohleschicht-10-kohm-0207-250-mw-5-1-4w-10k-p1338.html?&amp;trstct=pol_0</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/toolcraft-137981-zylinderstift-x-l-3-mm-x-40-mm-stahl-100-st-137981.html</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>reichelt</t>
+  </si>
+  <si>
+    <t>conrad</t>
+  </si>
+  <si>
+    <t>aliexpress</t>
   </si>
 </sst>
 </file>
@@ -203,9 +218,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -267,15 +282,15 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -287,7 +302,68 @@
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -298,6 +374,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D64516D-9D9A-4CF6-82BA-CD507034F281}" name="Table1" displayName="Table1" ref="B5:L30" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
+  <autoFilter ref="B5:L30" xr:uid="{C3CE7965-9B2B-416C-875C-B9F3C47DE8E6}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{DE4C8A4A-744E-4B6C-9E4A-016C08C3FE80}" name="Part"/>
+    <tableColumn id="2" xr3:uid="{7D84B473-527C-4DCA-8CC3-89C023DDB115}" name="Link"/>
+    <tableColumn id="3" xr3:uid="{372A7B5C-A4BE-4A44-9452-222FC0B13949}" name="Price" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BFD57283-E0F7-4D76-AAEF-E61B0D3026F6}" name="Pieces"/>
+    <tableColumn id="5" xr3:uid="{F00AA21C-FF15-4CB5-B945-1FB486CCB6CE}" name="Shipping" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{37021A3E-5ED1-450E-96BB-40E67B4ACA8C}" name="Pieces/Clock" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{2BE6EB37-2D09-4D74-B1D3-1FE052EE3A46}" name="€/Piece" dataDxfId="3" dataCellStyle="Currency">
+      <calculatedColumnFormula>D6/E6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{9B236157-2D4D-494C-B124-D8F148319B58}" name="€/Clock" dataDxfId="2">
+      <calculatedColumnFormula>G6*H6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{83487FDC-3CF2-4EFB-8354-6B1FA1839B33}" name="€/digit" dataDxfId="1">
+      <calculatedColumnFormula>I6*18+F6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{70674DBA-BAA2-4651-AC59-5AEEE5422BD1}" name="order count">
+      <calculatedColumnFormula>ROUNDUP(G6*18/E6,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{78DED87C-157B-45C7-B64D-54EBE536AB1C}" name="€/order" dataDxfId="0">
+      <calculatedColumnFormula>D6*K6</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,29 +703,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2BE598-9542-499C-B2C4-ABDA4FEDB025}">
-  <dimension ref="B1:P32"/>
+  <dimension ref="B1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="0.42578125" customWidth="1"/>
+    <col min="15" max="16" width="0.5703125" customWidth="1"/>
+    <col min="17" max="17" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>24</v>
       </c>
@@ -630,36 +741,36 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G3" s="2">
         <f>SUM(I6:I985)</f>
-        <v>15.496481111111112</v>
+        <v>15.857216111111111</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(J6:J985)</f>
-        <v>297.75666000000001</v>
+        <v>331.79989</v>
       </c>
       <c r="I3" s="1">
         <f>H3*4</f>
-        <v>1191.02664</v>
+        <v>1327.19956</v>
       </c>
       <c r="K3" s="1">
         <f>SUM(L6:L85)</f>
-        <v>346.63000000000011</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+        <v>351.37550000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
@@ -671,25 +782,44 @@
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5">
+        <f>SUM(N:N)</f>
+        <v>83.050000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -726,15 +856,31 @@
         <f>D6*K6</f>
         <v>24.9</v>
       </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="1">
-        <f>SUM(L8,L10,L19,L20,L22,L24)</f>
-        <v>83.050000000000011</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f>IF(ISNUMBER(SEARCH(N$5,$C6)),$L6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:Q6" si="1">IF(ISNUMBER(SEARCH(O$5,$C6)),$L6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6">
+        <f>SUM(O:O)</f>
+        <v>94.53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -756,30 +902,46 @@
         <v>21.96</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7:I32" si="1">G7*H7</f>
+        <f t="shared" ref="I7:I26" si="2">G7*H7</f>
         <v>2.7230400000000001</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J32" si="2">I7*18+F7</f>
+        <f t="shared" ref="J7:J26" si="3">I7*18+F7</f>
         <v>49.014720000000004</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K32" si="3">ROUNDUP(G7*18/E7,0)</f>
+        <f t="shared" ref="K7:K32" si="4">ROUNDUP(G7*18/E7,0)</f>
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L32" si="4">D7*K7</f>
+        <f t="shared" ref="L7:L30" si="5">D7*K7</f>
         <v>54.9</v>
       </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="1">
-        <f>SUM(L9,L11,L12,L13,L14,L17,L18,L23)</f>
-        <v>92.63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f t="shared" ref="N7:Q50" si="6">IF(ISNUMBER(SEARCH(N$5,$C7)),$L7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7">
+        <f>SUM(P:P)</f>
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -801,23 +963,46 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8500000000000005</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8">
+        <f>SUM(Q:Q)</f>
+        <v>51.44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -830,7 +1015,9 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>5.6</v>
+      </c>
       <c r="G9" s="5">
         <v>2</v>
       </c>
@@ -839,23 +1026,39 @@
         <v>0.64</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>28.64</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="5"/>
         <v>23.04</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="4"/>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
         <v>23.04</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -877,23 +1080,39 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79900000000000004</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.382000000000001</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.98</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>15.98</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -915,23 +1134,39 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5200000000000005</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5200000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>2.5200000000000005</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -953,23 +1188,39 @@
         <v>0.2</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.8</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.8</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>10.8</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -991,23 +1242,39 @@
         <v>0.1</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>1.8</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1287,6 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="5">
         <v>1</v>
       </c>
@@ -1029,23 +1295,39 @@
         <v>1.8</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.4</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.4</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>32.4</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1069,23 +1351,39 @@
         <v>1.286</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5720000000000001</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.845999999999997</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.44</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>51.44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1093,39 +1391,57 @@
         <v>28</v>
       </c>
       <c r="D16" s="1">
-        <v>17.18</v>
+        <f>17.18*1.19+16.27*0.19</f>
+        <v>23.535499999999999</v>
       </c>
       <c r="E16">
         <v>20</v>
       </c>
       <c r="F16" s="1">
-        <v>16.27</v>
+        <f>16.27+16</f>
+        <v>32.269999999999996</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>0.85899999999999999</v>
+        <v>1.1767749999999999</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="1"/>
-        <v>0.85899999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1.1767749999999999</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
-        <v>31.731999999999999</v>
+        <f t="shared" si="3"/>
+        <v>53.451949999999997</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="4"/>
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>23.535499999999999</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1147,23 +1463,39 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I17" s="1">
-        <f>G17*H17</f>
+        <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="J17" s="1">
-        <f>I17*18+F17</f>
+        <f t="shared" si="3"/>
         <v>5.22</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.22</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>5.22</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1185,23 +1517,39 @@
         <v>0.25</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1223,23 +1571,39 @@
         <v>8.7250000000000008E-2</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0470000000000002</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.846000000000004</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.94</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>20.94</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -1261,66 +1625,100 @@
         <v>3.7450000000000001E-3</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7409999999999998E-2</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2133799999999999</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.49</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>7.49</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1">
-        <v>22.53</v>
+        <v>19.02</v>
       </c>
       <c r="E21">
         <v>250</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>5.95</v>
+      </c>
       <c r="G21" s="5">
         <v>1</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
-        <v>9.0120000000000006E-2</v>
+        <v>7.6079999999999995E-2</v>
       </c>
       <c r="I21" s="1">
-        <f>G21*H21</f>
-        <v>9.0120000000000006E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.6079999999999995E-2</v>
       </c>
       <c r="J21" s="1">
-        <f>I21*18+F21</f>
-        <v>1.62216</v>
+        <f t="shared" si="3"/>
+        <v>7.3194400000000002</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="4"/>
-        <v>22.53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>19.02</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>19.02</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="1">
         <v>17.829999999999998</v>
@@ -1338,28 +1736,44 @@
         <v>17.829999999999998</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99055555555555541</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.829999999999998</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.829999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>17.829999999999998</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="1">
         <v>7.85</v>
@@ -1376,28 +1790,44 @@
         <v>0.78499999999999992</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21805555555555553</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9249999999999994</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.85</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>7.85</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1">
         <v>4.7699999999999996</v>
@@ -1414,23 +1844,42 @@
         <v>4.7699999999999992E-2</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57239999999999991</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.303199999999999</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.309999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>14.309999999999999</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25">
         <v>1</v>
@@ -1442,51 +1891,93 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.9</v>
+      </c>
       <c r="E26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
       <c r="H26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.0259999999999998</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="6"/>
+        <v>1.9</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27">
         <v>1</v>
@@ -1498,23 +1989,39 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I7:I32" si="7">G27*H27</f>
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J7:J32" si="8">I27*18+F27</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28">
         <v>1</v>
@@ -1526,23 +2033,39 @@
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29">
         <v>1</v>
@@ -1554,23 +2077,39 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30">
         <v>1</v>
@@ -1582,23 +2121,39 @@
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>IF(ISNUMBER(SEARCH(N$5,$C30)),$L30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31">
         <v>1</v>
@@ -1610,23 +2165,39 @@
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L7:L32" si="9">D31*K31</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32">
         <v>1</v>
@@ -1638,19 +2209,359 @@
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1670,13 +2581,17 @@
     <hyperlink ref="C18" r:id="rId12" xr:uid="{D51D221A-4355-4E01-8CD2-79F7A9F953D9}"/>
     <hyperlink ref="C19" r:id="rId13" display="https://smile.amazon.de/AZDelivery-Jumper-Arduino-Raspberry-Breadboard/dp/B07KYHBVR7/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=16A8WXV7EV07T&amp;keywords=breadboard%2Bkabel&amp;qid=1557670429&amp;s=gateway&amp;sprefix=breadboard%2Bka%2Caps%2C144&amp;sr=8-5&amp;th=1" xr:uid="{3F950A5E-3C74-4546-B228-A74C77192595}"/>
     <hyperlink ref="C20" r:id="rId14" xr:uid="{BA5DB6B8-70F4-426F-91E1-31722A08375E}"/>
-    <hyperlink ref="C21" r:id="rId15" xr:uid="{4AA5ECB5-CAC8-4B6F-9C0E-EC5A0CC87FFE}"/>
-    <hyperlink ref="C22" r:id="rId16" xr:uid="{F86CE81B-88F8-41C5-8ED8-6367BE79BFAA}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{DC53B78E-85DE-4B01-B00E-F0FD63E068EC}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{39876A2C-B311-4EDE-9605-4E62AC5DE2E1}"/>
-    <hyperlink ref="C9" r:id="rId19" xr:uid="{17BC717E-E82F-42E1-9A71-B3B15DA2628A}"/>
+    <hyperlink ref="C22" r:id="rId15" xr:uid="{F86CE81B-88F8-41C5-8ED8-6367BE79BFAA}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{DC53B78E-85DE-4B01-B00E-F0FD63E068EC}"/>
+    <hyperlink ref="C24" r:id="rId17" xr:uid="{39876A2C-B311-4EDE-9605-4E62AC5DE2E1}"/>
+    <hyperlink ref="C9" r:id="rId18" xr:uid="{17BC717E-E82F-42E1-9A71-B3B15DA2628A}"/>
+    <hyperlink ref="C26" r:id="rId19" xr:uid="{D1B89625-65A1-4151-AE7E-2BF183108830}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{CA026372-BAC5-4DC1-B62C-497E1FC97C04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+  <tableParts count="1">
+    <tablePart r:id="rId22"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Price.xlsx
+++ b/Price.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ADClock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\ADClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609BEA2B-1A24-44AF-9227-6799E6015B01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11E2F9-5C91-400A-807C-6B3AC2FC7CC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4AA6912-3771-4284-85F9-CCF999C76897}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4AA6912-3771-4284-85F9-CCF999C76897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -282,15 +282,15 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -304,13 +304,13 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -329,7 +329,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -351,10 +351,10 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -706,7 +706,7 @@
   <dimension ref="B1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,19 +747,19 @@
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G3" s="2">
         <f>SUM(I6:I985)</f>
-        <v>15.857216111111111</v>
+        <v>17.455216111111106</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(J6:J985)</f>
-        <v>331.79989</v>
+        <v>360.56389000000007</v>
       </c>
       <c r="I3" s="1">
         <f>H3*4</f>
-        <v>1327.19956</v>
+        <v>1442.2555600000003</v>
       </c>
       <c r="K3" s="1">
         <f>SUM(L6:L85)</f>
-        <v>351.37550000000005</v>
+        <v>383.33550000000002</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
       </c>
       <c r="S5">
         <f>SUM(N:N)</f>
-        <v>83.050000000000011</v>
+        <v>115.00999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
@@ -1081,23 +1081,23 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>0.79900000000000004</v>
+        <v>2.3970000000000002</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>14.382000000000001</v>
+        <v>43.146000000000001</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="5"/>
-        <v>15.98</v>
+        <v>47.94</v>
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
-        <v>15.98</v>
+        <v>47.94</v>
       </c>
       <c r="O10">
         <f t="shared" si="6"/>
@@ -1989,11 +1989,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I7:I32" si="7">G27*H27</f>
+        <f t="shared" ref="I27:I32" si="7">G27*H27</f>
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ref="J7:J32" si="8">I27*18+F27</f>
+        <f t="shared" ref="J27:J32" si="8">I27*18+F27</f>
         <v>0</v>
       </c>
       <c r="K27">
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" ref="L7:L32" si="9">D31*K31</f>
+        <f t="shared" ref="L31:L32" si="9">D31*K31</f>
         <v>0</v>
       </c>
       <c r="N31">

--- a/Price.xlsx
+++ b/Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\ADClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11E2F9-5C91-400A-807C-6B3AC2FC7CC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D1B496-C5D4-4AE8-AF4A-D9DF040B9210}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4AA6912-3771-4284-85F9-CCF999C76897}"/>
+    <workbookView xWindow="2295" yWindow="4095" windowWidth="21870" windowHeight="15435" xr2:uid="{C4AA6912-3771-4284-85F9-CCF999C76897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2BE598-9542-499C-B2C4-ABDA4FEDB025}">
   <dimension ref="B1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="137" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,19 +747,19 @@
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G3" s="2">
         <f>SUM(I6:I985)</f>
-        <v>17.455216111111106</v>
+        <v>17.360066111111106</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(J6:J985)</f>
-        <v>360.56389000000007</v>
+        <v>359.92119000000008</v>
       </c>
       <c r="I3" s="1">
         <f>H3*4</f>
-        <v>1442.2555600000003</v>
+        <v>1439.6847600000003</v>
       </c>
       <c r="K3" s="1">
         <f>SUM(L6:L85)</f>
-        <v>383.33550000000002</v>
+        <v>381.4325</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -1391,30 +1391,30 @@
         <v>28</v>
       </c>
       <c r="D16" s="1">
-        <f>17.18*1.19+16.27*0.19</f>
-        <v>23.535499999999999</v>
+        <f>15.41*1.19+17.34*0.19</f>
+        <v>21.632499999999997</v>
       </c>
       <c r="E16">
         <v>20</v>
       </c>
       <c r="F16" s="1">
-        <f>16.27+16</f>
-        <v>32.269999999999996</v>
+        <f>17.34+16</f>
+        <v>33.340000000000003</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>1.1767749999999999</v>
+        <v>1.0816249999999998</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="2"/>
-        <v>1.1767749999999999</v>
+        <v>1.0816249999999998</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="3"/>
-        <v>53.451949999999997</v>
+        <v>52.809249999999999</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" si="5"/>
-        <v>23.535499999999999</v>
+        <v>21.632499999999997</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>

--- a/Price.xlsx
+++ b/Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\ADClock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ADClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11E2F9-5C91-400A-807C-6B3AC2FC7CC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89EB597-62E8-41D5-AD2D-566C5355FBC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4AA6912-3771-4284-85F9-CCF999C76897}"/>
+    <workbookView xWindow="4605" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{C4AA6912-3771-4284-85F9-CCF999C76897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Stepper</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Filament White</t>
   </si>
   <si>
-    <t>https://www.filamentworld.de/shop/pla-filament-3d-drucker/schwarz/</t>
-  </si>
-  <si>
-    <t>https://www.filamentworld.de/shop/pla-filament-3d-drucker/weiss/</t>
-  </si>
-  <si>
     <t>https://smile.amazon.de/preiswerte-Magnete-Neodym-Pinnwand-Werkstatt/dp/B00IQH1EUE/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=12ZUXSF8JD64Y&amp;keywords=mini+neodym+magnete&amp;qid=1557610389&amp;s=gateway&amp;sprefix=mini+neody%2Caps%2C-1&amp;sr=8-5</t>
   </si>
   <si>
@@ -211,6 +205,21 @@
   </si>
   <si>
     <t>aliexpress</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/printtaster-tht-1-57-n-6-x-6-x-5-mm-rnd-210-00188-p226409.html?&amp;trstct=pol_1</t>
+  </si>
+  <si>
+    <t>Push Button</t>
+  </si>
+  <si>
+    <t>https://www.filamentworld.de/shop/abs-filament-3d-drucker/weiss-2/</t>
+  </si>
+  <si>
+    <t>https://www.filamentworld.de/shop/abs-filament-3d-drucker/schwarz-2/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/protastic-6000-2RS-Kugellager-Carbon-Stahl/dp/B071RPJ5XL/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=Z7WVWF794OMQ&amp;keywords=kugellager+10mm&amp;qid=1557611666&amp;s=gateway&amp;sprefix=kugellager+1%2Caps%2C148&amp;sr=8-3&amp;pldnSite=1</t>
   </si>
 </sst>
 </file>
@@ -218,9 +227,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -254,12 +263,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -282,18 +297,19 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -304,13 +320,13 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -329,7 +345,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -351,10 +367,10 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -705,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2BE598-9542-499C-B2C4-ABDA4FEDB025}">
   <dimension ref="B1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="137" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,34 +748,34 @@
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G3" s="2">
         <f>SUM(I6:I985)</f>
-        <v>17.455216111111106</v>
+        <v>17.543476111111104</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(J6:J985)</f>
-        <v>360.56389000000007</v>
+        <v>362.15257000000003</v>
       </c>
       <c r="I3" s="1">
         <f>H3*4</f>
-        <v>1442.2555600000003</v>
+        <v>1448.6102800000001</v>
       </c>
       <c r="K3" s="1">
         <f>SUM(L6:L85)</f>
-        <v>383.33550000000002</v>
+        <v>416.03550000000001</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -770,10 +786,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1</v>
@@ -782,37 +798,37 @@
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>57</v>
       </c>
-      <c r="P5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>59</v>
-      </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S5">
         <f>SUM(N:N)</f>
@@ -824,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
-        <v>24.9</v>
+        <v>54.9</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5">
@@ -838,15 +854,15 @@
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H32" si="0">D6/E6</f>
-        <v>24.9</v>
+        <v>21.96</v>
       </c>
       <c r="I6" s="1">
         <f>G6*H6</f>
-        <v>0.52290000000000003</v>
+        <v>0.46116000000000007</v>
       </c>
       <c r="J6" s="1">
         <f>I6*18+F6</f>
-        <v>9.4122000000000003</v>
+        <v>8.3008800000000011</v>
       </c>
       <c r="K6">
         <f>ROUNDUP(G6*18/E6,0)</f>
@@ -854,7 +870,7 @@
       </c>
       <c r="L6" s="1">
         <f>D6*K6</f>
-        <v>24.9</v>
+        <v>54.9</v>
       </c>
       <c r="N6">
         <f>IF(ISNUMBER(SEARCH(N$5,$C6)),$L6,0)</f>
@@ -873,11 +889,11 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S6">
         <f>SUM(O:O)</f>
-        <v>94.53</v>
+        <v>97.23</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -885,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>54.9</v>
@@ -934,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S7">
         <f>SUM(P:P)</f>
@@ -943,10 +959,10 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>3.25</v>
@@ -995,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S8">
         <f>SUM(Q:Q)</f>
@@ -1004,10 +1020,10 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <v>0.64</v>
@@ -1060,10 +1076,10 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>7.99</v>
@@ -1114,10 +1130,10 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>7.0000000000000007E-2</v>
@@ -1168,10 +1184,10 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>0.2</v>
@@ -1222,10 +1238,10 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>0.1</v>
@@ -1276,10 +1292,10 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>1.8</v>
@@ -1332,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1">
         <v>6.43</v>
@@ -1385,10 +1401,10 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1">
         <f>17.18*1.19+16.27*0.19</f>
@@ -1443,10 +1459,10 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>0.28999999999999998</v>
@@ -1497,10 +1513,10 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1">
         <v>0.25</v>
@@ -1551,10 +1567,10 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
         <v>3.49</v>
@@ -1605,10 +1621,10 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1">
         <v>7.49</v>
@@ -1659,10 +1675,10 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1">
         <v>19.02</v>
@@ -1715,10 +1731,10 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1">
         <v>17.829999999999998</v>
@@ -1770,10 +1786,10 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1">
         <v>7.85</v>
@@ -1824,10 +1840,10 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1">
         <v>4.7699999999999996</v>
@@ -1878,7 +1894,7 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25">
@@ -1925,10 +1941,10 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
         <v>1.9</v>
@@ -1978,31 +1994,41 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.15</v>
+      </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
       <c r="H27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" ref="I27:I32" si="7">G27*H27</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" ref="J27:J32" si="8">I27*18+F27</f>
-        <v>0</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
@@ -2010,7 +2036,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="P27">
         <f t="shared" si="6"/>
@@ -2241,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N33">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2259,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2277,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N35">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2295,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N36">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2313,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N37">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2331,7 +2357,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="N38">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2349,7 +2381,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="N39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2367,7 +2405,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="N40">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2385,7 +2429,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="N41">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2403,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N42">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2421,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N43">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2439,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N44">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2457,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N45">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2475,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N46">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2493,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N47">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2511,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N48">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2567,31 +2617,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{DC118BE2-A7FF-4BFC-9650-FBC63FB10D20}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{600CD20D-4526-4714-B7F9-15F2C7900B1C}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{E22A6113-96A2-4574-B2BF-9E9B4F42BC63}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{2526DDB6-9E1E-42F3-B243-C3902CEEF01E}"/>
-    <hyperlink ref="C15" r:id="rId5" display="https://de.aliexpress.com/item/5-V-Stepper-Motor-28BYJ-48-Mit-Stick-Test-Modul-Bord-ULN2003/32880238130.html?spm=a2g0x.search0104.3.79.626f7e90ISR4Nc&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_7_10065_10068_10547_319_317_10548_10696_10084_453_10083_454_10618_10304_10307_10820_10821_537_10302_536_10843_10059_10884_10887_321_322_10103%2Csearchweb201603_52%2CppcSwitch_0&amp;algo_pvid=afac5e1f-f15f-459b-8a3f-3f2be6684523&amp;algo_expid=afac5e1f-f15f-459b-8a3f-3f2be6684523-11" xr:uid="{76ED6227-37F1-4F37-867B-99CEAF3FD8D7}"/>
-    <hyperlink ref="C16" r:id="rId6" display="https://jlcpcb.com/" xr:uid="{763E6B95-A18D-4830-9499-FC49DC29B8FF}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{CB42CFBF-ABD8-41BB-80DE-AD0E054C7EA2}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{263F80D9-BA39-4F18-97F0-5FCA4076308A}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{61D33A8B-ED66-44AF-A906-26CB014F6C51}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{6CEA07A5-A650-4247-9BF2-9AE3DEA6842E}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{2CD2A3A7-4C92-44CD-949E-34BBFAEF84BA}"/>
-    <hyperlink ref="C18" r:id="rId12" xr:uid="{D51D221A-4355-4E01-8CD2-79F7A9F953D9}"/>
-    <hyperlink ref="C19" r:id="rId13" display="https://smile.amazon.de/AZDelivery-Jumper-Arduino-Raspberry-Breadboard/dp/B07KYHBVR7/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=16A8WXV7EV07T&amp;keywords=breadboard%2Bkabel&amp;qid=1557670429&amp;s=gateway&amp;sprefix=breadboard%2Bka%2Caps%2C144&amp;sr=8-5&amp;th=1" xr:uid="{3F950A5E-3C74-4546-B228-A74C77192595}"/>
-    <hyperlink ref="C20" r:id="rId14" xr:uid="{BA5DB6B8-70F4-426F-91E1-31722A08375E}"/>
-    <hyperlink ref="C22" r:id="rId15" xr:uid="{F86CE81B-88F8-41C5-8ED8-6367BE79BFAA}"/>
-    <hyperlink ref="C23" r:id="rId16" xr:uid="{DC53B78E-85DE-4B01-B00E-F0FD63E068EC}"/>
-    <hyperlink ref="C24" r:id="rId17" xr:uid="{39876A2C-B311-4EDE-9605-4E62AC5DE2E1}"/>
-    <hyperlink ref="C9" r:id="rId18" xr:uid="{17BC717E-E82F-42E1-9A71-B3B15DA2628A}"/>
-    <hyperlink ref="C26" r:id="rId19" xr:uid="{D1B89625-65A1-4151-AE7E-2BF183108830}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{CA026372-BAC5-4DC1-B62C-497E1FC97C04}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{E22A6113-96A2-4574-B2BF-9E9B4F42BC63}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{2526DDB6-9E1E-42F3-B243-C3902CEEF01E}"/>
+    <hyperlink ref="C15" r:id="rId3" display="https://de.aliexpress.com/item/5-V-Stepper-Motor-28BYJ-48-Mit-Stick-Test-Modul-Bord-ULN2003/32880238130.html?spm=a2g0x.search0104.3.79.626f7e90ISR4Nc&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_7_10065_10068_10547_319_317_10548_10696_10084_453_10083_454_10618_10304_10307_10820_10821_537_10302_536_10843_10059_10884_10887_321_322_10103%2Csearchweb201603_52%2CppcSwitch_0&amp;algo_pvid=afac5e1f-f15f-459b-8a3f-3f2be6684523&amp;algo_expid=afac5e1f-f15f-459b-8a3f-3f2be6684523-11" xr:uid="{76ED6227-37F1-4F37-867B-99CEAF3FD8D7}"/>
+    <hyperlink ref="C16" r:id="rId4" display="https://jlcpcb.com/" xr:uid="{763E6B95-A18D-4830-9499-FC49DC29B8FF}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{CB42CFBF-ABD8-41BB-80DE-AD0E054C7EA2}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{263F80D9-BA39-4F18-97F0-5FCA4076308A}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{61D33A8B-ED66-44AF-A906-26CB014F6C51}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{6CEA07A5-A650-4247-9BF2-9AE3DEA6842E}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{2CD2A3A7-4C92-44CD-949E-34BBFAEF84BA}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{D51D221A-4355-4E01-8CD2-79F7A9F953D9}"/>
+    <hyperlink ref="C19" r:id="rId11" display="https://smile.amazon.de/AZDelivery-Jumper-Arduino-Raspberry-Breadboard/dp/B07KYHBVR7/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=16A8WXV7EV07T&amp;keywords=breadboard%2Bkabel&amp;qid=1557670429&amp;s=gateway&amp;sprefix=breadboard%2Bka%2Caps%2C144&amp;sr=8-5&amp;th=1" xr:uid="{3F950A5E-3C74-4546-B228-A74C77192595}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{BA5DB6B8-70F4-426F-91E1-31722A08375E}"/>
+    <hyperlink ref="C22" r:id="rId13" xr:uid="{F86CE81B-88F8-41C5-8ED8-6367BE79BFAA}"/>
+    <hyperlink ref="C23" r:id="rId14" xr:uid="{DC53B78E-85DE-4B01-B00E-F0FD63E068EC}"/>
+    <hyperlink ref="C24" r:id="rId15" xr:uid="{39876A2C-B311-4EDE-9605-4E62AC5DE2E1}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{17BC717E-E82F-42E1-9A71-B3B15DA2628A}"/>
+    <hyperlink ref="C26" r:id="rId17" xr:uid="{D1B89625-65A1-4151-AE7E-2BF183108830}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{CA026372-BAC5-4DC1-B62C-497E1FC97C04}"/>
+    <hyperlink ref="C27" r:id="rId19" xr:uid="{46615640-CAEB-4EA6-98F7-781D06F1264C}"/>
+    <hyperlink ref="C7" r:id="rId20" xr:uid="{78022E2E-209B-4A6E-8A35-2F1B726238A6}"/>
+    <hyperlink ref="C6" r:id="rId21" xr:uid="{CA5586A7-2958-4411-81BD-632289973AC1}"/>
+    <hyperlink ref="D38" r:id="rId22" xr:uid="{9C485F68-9C06-414A-902D-2F983FA9BC71}"/>
+    <hyperlink ref="D39" r:id="rId23" xr:uid="{CEDD1037-A3F6-4457-8F71-7604B39DC033}"/>
+    <hyperlink ref="D40" r:id="rId24" xr:uid="{05ABCD60-136A-4C7A-BC51-3943E17841C8}"/>
+    <hyperlink ref="D41" r:id="rId25" xr:uid="{7E0F4EA5-BD10-4709-AF75-E0FF1CDB3AD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>